--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/数据埋点.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/数据埋点.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D440E78C-4990-46B3-B49D-76D9AAA62D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC97164-7C21-497C-AA08-CDCF37549842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28410" yWindow="0" windowWidth="13500" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26460" yWindow="1455" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVGPoint" sheetId="3" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/数据埋点.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/数据埋点.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC97164-7C21-497C-AA08-CDCF37549842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A816D9C0-7BE3-4237-A7FA-172262FD0A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26460" yWindow="1455" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVGPoint" sheetId="3" r:id="rId1"/>
@@ -323,6 +323,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -334,14 +342,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -403,7 +403,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -698,7 +698,7 @@
   <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
